--- a/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
+++ b/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\Pruebas_Manuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D2C6B-CA3F-47CE-9B98-41671940515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF845C-61E3-4164-A34A-E9B6D7414FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>HU006</t>
   </si>
   <si>
-    <t>Registrar solicitud de vacaciones.</t>
-  </si>
-  <si>
     <t>CP012</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>HU007</t>
   </si>
   <si>
-    <t>Aprobar o rechazar solicitudes.</t>
-  </si>
-  <si>
     <t>CP014</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>HU008</t>
   </si>
   <si>
-    <t>Ver historial de vacaciones.</t>
-  </si>
-  <si>
     <t>CP016</t>
   </si>
   <si>
@@ -262,6 +253,15 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Registrar solicitud de permiso para un empleado</t>
+  </si>
+  <si>
+    <t>Aprobar o rechazar solicitud de permiso</t>
+  </si>
+  <si>
+    <t>Visualizar historial de permisos de un empleado</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -674,7 +671,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +692,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -736,13 +733,13 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>68</v>
+      <c r="H3" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -759,8 +756,8 @@
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>70</v>
+      <c r="H4" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,8 +771,8 @@
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>70</v>
+      <c r="H5" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -789,8 +786,8 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>70</v>
+      <c r="H6" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,8 +809,8 @@
       <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>70</v>
+      <c r="H7" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -827,8 +824,8 @@
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>71</v>
+      <c r="H8" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,8 +847,8 @@
       <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>70</v>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,10 +860,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,10 +875,10 @@
         <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,15 +890,15 @@
         <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
@@ -918,13 +915,13 @@
       <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>70</v>
+      <c r="H13" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
@@ -941,8 +938,8 @@
       <c r="G14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -951,13 +948,13 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>70</v>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -966,18 +963,18 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>70</v>
+      <c r="H16" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>44</v>
@@ -986,16 +983,16 @@
         <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1004,36 +1001,36 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>70</v>
+      <c r="H19" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -1042,36 +1039,36 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>78</v>
+      <c r="H21" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
+++ b/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF845C-61E3-4164-A34A-E9B6D7414FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0F6E8-2F5A-4AB5-B560-68352508E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>ID Req</t>
   </si>
@@ -195,18 +195,12 @@
     <t>CP015</t>
   </si>
   <si>
-    <t>El sistema debe permitir ver historial de solicitudes de vacaciones.</t>
-  </si>
-  <si>
     <t>HU008</t>
   </si>
   <si>
     <t>CP016</t>
   </si>
   <si>
-    <t>Validar que el empleado puede consultar su historial correctamente.</t>
-  </si>
-  <si>
     <t>Matriz de Trazabilidad - OrangeHRM DEMO</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Validar que el nuevo empleado este en la lista de empleados del modulo PIM</t>
   </si>
   <si>
-    <t>Validar que se puede aprobar o rechazar solicitudes</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -262,6 +253,57 @@
   </si>
   <si>
     <t>Visualizar historial de permisos de un empleado</t>
+  </si>
+  <si>
+    <t>Validar que se puede aprobar la solicitud</t>
+  </si>
+  <si>
+    <t>Validar que se puede rechazar la solicitud</t>
+  </si>
+  <si>
+    <t>CP019</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ver historial de solicitudes de un empleado.</t>
+  </si>
+  <si>
+    <t>Validar que se puede ver el historial del empleado correctamente.</t>
+  </si>
+  <si>
+    <t>CP020</t>
+  </si>
+  <si>
+    <t>CP021</t>
+  </si>
+  <si>
+    <t>Validar historial del empleado buscado por tipo de licencia incorrecto</t>
+  </si>
+  <si>
+    <t>Validar historial del empleado buscado por sub unidad incorrecta</t>
+  </si>
+  <si>
+    <t>RF014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizar lista general de permisos por fecha</t>
+  </si>
+  <si>
+    <t>HU009</t>
+  </si>
+  <si>
+    <t>CP022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que se puede ver el listado general de permisos tomados y pendientes </t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar al administrador un listado general de permisos tomados y pendientes por fecha.</t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes con fechas incorrectas</t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes con fechas en formato incorrecto</t>
   </si>
 </sst>
 </file>
@@ -366,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,6 +429,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,19 +720,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="7" max="7" width="52.77734375" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,7 +744,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -734,12 +786,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -757,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -772,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -787,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -810,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -825,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,7 +900,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,10 +912,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -875,10 +927,10 @@
         <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -890,10 +942,10 @@
         <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,12 +968,12 @@
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
@@ -939,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -969,12 +1021,12 @@
         <v>42</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>44</v>
@@ -983,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>53</v>
@@ -992,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,12 +1059,12 @@
         <v>49</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>51</v>
@@ -1021,16 +1073,16 @@
         <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,36 +1091,130 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>75</v>
+      <c r="G22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
+++ b/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0F6E8-2F5A-4AB5-B560-68352508E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423035BF-4626-49CE-8BB5-2FDAF41353FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>ID Req</t>
   </si>
@@ -174,9 +174,6 @@
     <t>CP013</t>
   </si>
   <si>
-    <t>Validar que no se permiten fechas pasadas.</t>
-  </si>
-  <si>
     <t>RF007</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Validar que el nuevo empleado este en la lista de empleados del modulo PIM</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Registrar solicitud de permiso para un empleado</t>
   </si>
   <si>
@@ -267,18 +261,12 @@
     <t>El sistema debe permitir ver historial de solicitudes de un empleado.</t>
   </si>
   <si>
-    <t>Validar que se puede ver el historial del empleado correctamente.</t>
-  </si>
-  <si>
     <t>CP020</t>
   </si>
   <si>
     <t>CP021</t>
   </si>
   <si>
-    <t>Validar historial del empleado buscado por tipo de licencia incorrecto</t>
-  </si>
-  <si>
     <t>Validar historial del empleado buscado por sub unidad incorrecta</t>
   </si>
   <si>
@@ -300,10 +288,43 @@
     <t>El sistema debe mostrar al administrador un listado general de permisos tomados y pendientes por fecha.</t>
   </si>
   <si>
-    <t>Validar el listado general de permisos tomados y pendientes con fechas incorrectas</t>
-  </si>
-  <si>
-    <t>Validar el listado general de permisos tomados y pendientes con fechas en formato incorrecto</t>
+    <t>Validar que se puede ver el historial de permisos del empleado correctamente.</t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes buscados con fechas en formato incorrecto</t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes buscados con fechas incorrectas</t>
+  </si>
+  <si>
+    <t>CP023</t>
+  </si>
+  <si>
+    <t>CP024</t>
+  </si>
+  <si>
+    <t>CP025</t>
+  </si>
+  <si>
+    <t>CP026</t>
+  </si>
+  <si>
+    <t>CP027</t>
+  </si>
+  <si>
+    <t>Validar que no pueda seleccionar fechas con formato incorrecto</t>
+  </si>
+  <si>
+    <t>Validar que se puede seleccionar rango de fechas y enviar solicitud de licencia por vacaciones.</t>
+  </si>
+  <si>
+    <t>Validar que no se permiten rango de fechas pasadas.</t>
+  </si>
+  <si>
+    <t>validar que no se sobrepongan las fechas de la solicitud con otra solicitud</t>
+  </si>
+  <si>
+    <t>validar que no se permitan fechas que excedan el balance de dias</t>
   </si>
 </sst>
 </file>
@@ -349,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,9 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,8 +449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +756,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -786,12 +798,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -809,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -824,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -839,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -877,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -900,7 +912,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -912,10 +924,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -927,10 +939,10 @@
         <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,15 +954,15 @@
         <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
@@ -968,12 +980,12 @@
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
@@ -991,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1006,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,12 +1033,12 @@
         <v>42</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>44</v>
@@ -1035,186 +1047,235 @@
         <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="5" t="s">
+      <c r="H27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="5" t="s">
+      <c r="E28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="F28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="H28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H29" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>72</v>
+      <c r="H30" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
+++ b/02-Pruebas_Manuales/Matriz_de_Trazabilidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423035BF-4626-49CE-8BB5-2FDAF41353FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFF20F-2583-40EC-A6FF-E3E6B8230F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>ID Req</t>
   </si>
@@ -267,9 +267,6 @@
     <t>CP021</t>
   </si>
   <si>
-    <t>Validar historial del empleado buscado por sub unidad incorrecta</t>
-  </si>
-  <si>
     <t>RF014</t>
   </si>
   <si>
@@ -282,21 +279,9 @@
     <t>CP022</t>
   </si>
   <si>
-    <t xml:space="preserve">Validar que se puede ver el listado general de permisos tomados y pendientes </t>
-  </si>
-  <si>
     <t>El sistema debe mostrar al administrador un listado general de permisos tomados y pendientes por fecha.</t>
   </si>
   <si>
-    <t>Validar que se puede ver el historial de permisos del empleado correctamente.</t>
-  </si>
-  <si>
-    <t>Validar el listado general de permisos tomados y pendientes buscados con fechas en formato incorrecto</t>
-  </si>
-  <si>
-    <t>Validar el listado general de permisos tomados y pendientes buscados con fechas incorrectas</t>
-  </si>
-  <si>
     <t>CP023</t>
   </si>
   <si>
@@ -325,13 +310,88 @@
   </si>
   <si>
     <t>validar que no se permitan fechas que excedan el balance de dias</t>
+  </si>
+  <si>
+    <t>Buscar historial de empleado sin aplicar filtros</t>
+  </si>
+  <si>
+    <t>Buscar historial con estado específico</t>
+  </si>
+  <si>
+    <t>Buscar historial con estado especifico y rango de fechas</t>
+  </si>
+  <si>
+    <t>Buscar historial completo con subunidad seleccionada</t>
+  </si>
+  <si>
+    <t>Buscar historial con subunidad incorrecta</t>
+  </si>
+  <si>
+    <t>Buscar historial con todos los campos combinados</t>
+  </si>
+  <si>
+    <t>Buscar historial de un empleado sin solicitudes</t>
+  </si>
+  <si>
+    <t>CP028</t>
+  </si>
+  <si>
+    <t>CP029</t>
+  </si>
+  <si>
+    <t>CP030</t>
+  </si>
+  <si>
+    <t>CP031</t>
+  </si>
+  <si>
+    <t>CP032</t>
+  </si>
+  <si>
+    <t>Visualización general de solicitudes en el año actual (configuración por defecto)</t>
+  </si>
+  <si>
+    <t>Verificar el listado general de todas las solicitudes de empleados por intervalo de fecha</t>
+  </si>
+  <si>
+    <t>Filtrar lista por tipo de permiso</t>
+  </si>
+  <si>
+    <t>Filtrar lista por subunidad (área)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar el listado general de permisos tomados y pendientes </t>
+  </si>
+  <si>
+    <t>Buscar permisos en fechas sin registros</t>
+  </si>
+  <si>
+    <t>Buscar permisos con subunidad inexistente</t>
+  </si>
+  <si>
+    <t>CP033</t>
+  </si>
+  <si>
+    <t>CP034</t>
+  </si>
+  <si>
+    <t>CP035</t>
+  </si>
+  <si>
+    <t>CP036</t>
+  </si>
+  <si>
+    <t>CP038</t>
+  </si>
+  <si>
+    <t>Validar intervalo de fecha incorretas al buscar permisos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +425,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1138,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>64</v>
@@ -1083,7 +1153,7 @@
         <v>56</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>64</v>
@@ -1098,7 +1168,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>65</v>
@@ -1113,7 +1183,7 @@
         <v>67</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>64</v>
@@ -1128,7 +1198,7 @@
         <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>64</v>
@@ -1178,7 +1248,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>75</v>
@@ -1201,80 +1271,230 @@
         <v>73</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>85</v>
+      <c r="G28" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+    <row r="29" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="G29" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H29" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="G30" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="H30" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>64</v>
       </c>
     </row>
